--- a/biology/Zoologie/Cavité_générale/Cavité_générale.xlsx
+++ b/biology/Zoologie/Cavité_générale/Cavité_générale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_g%C3%A9n%C3%A9rale</t>
+          <t>Cavité_générale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, la cavité générale désigne chez les Métazoaires triploblastiques l'espace liquidien qui délimite le tube digestif (les dérivés de l'endoderme).
 La présence d'une cavité générale permet de tamponner les variations de température, de pH et d'osmolarité, et permet aussi la filtration des déchets métaboliques. Elle permet aux organes de croître et de se mouvoir. Enfin la pression de turgescence permet l'absorption des chocs, voire la rigidification du corps (squelette hydrostatique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_g%C3%A9n%C3%A9rale</t>
+          <t>Cavité_générale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les cœlomates</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cœlome constitue une cavité générale vraie creusée dans le mésoderme. Ce dernier tapisse donc entièrement l'ectoderme et l'endoderme. Le cœlome se forme par schizocœlie chez les protostomiens et par entérocœlie chez les deutérostomiens.
 exemples : chordés, annélides, arthropodes</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_g%C3%A9n%C3%A9rale</t>
+          <t>Cavité_générale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les pseudocœlomates</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cavité générale n'est pas creusée dans le mésoderme mais dérive du blastocœle. Le mésoderme ne tapisse donc que partiellement l'endoderme.
 exemple : nématodes</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_g%C3%A9n%C3%A9rale</t>
+          <t>Cavité_générale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Les acœlomates</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ils n'ont pas de cavité générale, le mésoderme constitue un tissu de remplissage non creusé.
 exemple : platodes</t>
